--- a/datas/add_patient.xlsx
+++ b/datas/add_patient.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test_ecs\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074CCD6C-E12C-4975-9B0F-F93696EDCCA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE9A75-B9B8-4F63-89E6-10E89918B004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D6AC269-3BE5-4D63-87D6-D6EB24BC7044}"/>
   </bookViews>
@@ -99,10 +99,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"","fullname":"阿古拉","cardnum":"333","bornday":"2021-02-18","gender":"男","tel":"13312121122","parenttel":"15500002222","reason":"是是是","idcard":"360401202102181221","address":"健康的教科书","memberstel":"阿拉蕾","category":"7","admission":"扶走","greenchannel":"","others":"","consciousness":"清醒","anamnesis":"糖尿病","status":"未接诊","source":"110","age":"1天","registertime":"","sg":"60","tz":"3","hx":"未测","tw":"未测","mb":"未测","szy":"未测","ssy":"未测","spo2":"未测","pcn":"未测","il6":"","crp":"","cea":"","afp":"","myo":"","ddimer":"","fer":"","ntprobnp":"","hsctnl":"","ckmb":"","ctnt":"","ca":"","sighid":"","handleid":"","autograde":"1004","finalgrade":"","changereason":"选择修改原因","hljl":"是是是啊","nurse":"刘深","nurseid":"10063","deptment":"5","symtpomid":"10124124609","symtpomzdyvalue":"","symtpomzdygrade":"","edts_ids":"","edts_ids_qitastatus":"false","edts_ids_qita":"","mews_ids":"","mews_score":"","edts_score":"","pain_score":"","gcs_score":"","sign_grade":"","dividtime":"2021-02-19 18:28","signurl":"","xgpj":"","cixu":"1","maxcixu":"1","feijz":"1","hisid":"","PAADMVisitNumber":"","savestatus":"save","allergic_history":"不详","supplement":"","events_id":"","events_name":"","go_rct":"0","remark":""}</t>
-  </si>
-  <si>
     <t>保存成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"","fullname":"${fullname}","cardnum":"33233","bornday":"2021-02-18","gender":"男","tel":"13312121122","parenttel":"15500002222","reason":"是是是","idcard":"360401202102181221","address":"健康的教科书","memberstel":"阿拉蕾","category":"7","admission":"扶走","greenchannel":"","others":"","consciousness":"清醒","anamnesis":"糖尿病","status":"未接诊","source":"110","age":"1天","registertime":"","sg":"60","tz":"3","hx":"未测","tw":"未测","mb":"未测","szy":"未测","ssy":"未测","spo2":"未测","pcn":"未测","il6":"","crp":"","cea":"","afp":"","myo":"","ddimer":"","fer":"","ntprobnp":"","hsctnl":"","ckmb":"","ctnt":"","ca":"","sighid":"","handleid":"","autograde":"1004","finalgrade":"","changereason":"选择修改原因","hljl":"是是是啊","nurse":"刘深","nurseid":"10063","deptment":"5","symtpomid":"10124124609","symtpomzdyvalue":"","symtpomzdygrade":"","edts_ids":"","edts_ids_qitastatus":"false","edts_ids_qita":"","mews_ids":"","mews_score":"","edts_score":"","pain_score":"","gcs_score":"","sign_grade":"","dividtime":"2021-02-19 18:28","signurl":"","xgpj":"","cixu":"1","maxcixu":"1","feijz":"1","hisid":"","PAADMVisitNumber":"","savestatus":"save","allergic_history":"不详","supplement":"","events_id":"","events_name":"","go_rct":"0","remark":""}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +489,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,10 +575,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/datas/add_patient.xlsx
+++ b/datas/add_patient.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test_ecs\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE9A75-B9B8-4F63-89E6-10E89918B004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1D6AC269-3BE5-4D63-87D6-D6EB24BC7044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -103,15 +97,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"id":"","fullname":"${fullname}","cardnum":"33233","bornday":"2021-02-18","gender":"男","tel":"13312121122","parenttel":"15500002222","reason":"是是是","idcard":"360401202102181221","address":"健康的教科书","memberstel":"阿拉蕾","category":"7","admission":"扶走","greenchannel":"","others":"","consciousness":"清醒","anamnesis":"糖尿病","status":"未接诊","source":"110","age":"1天","registertime":"","sg":"60","tz":"3","hx":"未测","tw":"未测","mb":"未测","szy":"未测","ssy":"未测","spo2":"未测","pcn":"未测","il6":"","crp":"","cea":"","afp":"","myo":"","ddimer":"","fer":"","ntprobnp":"","hsctnl":"","ckmb":"","ctnt":"","ca":"","sighid":"","handleid":"","autograde":"1004","finalgrade":"","changereason":"选择修改原因","hljl":"是是是啊","nurse":"刘深","nurseid":"10063","deptment":"5","symtpomid":"10124124609","symtpomzdyvalue":"","symtpomzdygrade":"","edts_ids":"","edts_ids_qitastatus":"false","edts_ids_qita":"","mews_ids":"","mews_score":"","edts_score":"","pain_score":"","gcs_score":"","sign_grade":"","dividtime":"2021-02-19 18:28","signurl":"","xgpj":"","cixu":"1","maxcixu":"1","feijz":"1","hisid":"","PAADMVisitNumber":"","savestatus":"save","allergic_history":"不详","supplement":"","events_id":"","events_name":"","go_rct":"0","remark":""}</t>
+    <t>{"id":"","fullname":"${fullname}","cardnum":"${cardnum}","bornday":"2020-02-12","gender":"男","tel":"${tel}","parenttel":"${parenttel}","reason":"是是是","idcard":"${idcard}","address":"${address}","memberstel":"阿拉蕾","category":"7","admission":"扶走","greenchannel":"","others":"","consciousness":"清醒","anamnesis":"糖尿病","status":"未接诊","source":"110","age":"1天","registertime":"","sg":"60","tz":"3","hx":"未测","tw":"未测","mb":"未测","szy":"未测","ssy":"未测","spo2":"未测","pcn":"未测","il6":"","crp":"","cea":"","afp":"","myo":"","ddimer":"","fer":"","ntprobnp":"","hsctnl":"","ckmb":"","ctnt":"","ca":"","sighid":"","handleid":"","autograde":"1004","finalgrade":"","changereason":"选择修改原因","hljl":"是是是啊","nurse":"刘深","nurseid":"10063","deptment":"5","symtpomid":"10124124609","symtpomzdyvalue":"","symtpomzdygrade":"","edts_ids":"","edts_ids_qitastatus":"false","edts_ids_qita":"","mews_ids":"","mews_score":"","edts_score":"","pain_score":"","gcs_score":"","sign_grade":"","dividtime":"2021-02-19 18:28","signurl":"","xgpj":"","cixu":"1","maxcixu":"1","feijz":"1","hisid":"","PAADMVisitNumber":"","savestatus":"save","allergic_history":"不详","supplement":"","events_id":"","events_name":"","go_rct":"0","remark":""}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +168,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{65B7F345-1E08-4BC3-8756-8AF042136CCC}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -284,7 +278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -478,27 +472,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90B9354-91E6-4B11-AF17-4DDE8A6E5A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -541,7 +535,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -561,7 +555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -584,5 +578,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>